--- a/www.eia.gov/forecasts/steo/xls/Fig6.xlsx
+++ b/www.eia.gov/forecasts/steo/xls/Fig6.xlsx
@@ -32,7 +32,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
   <si>
-    <t>Short-Term Energy Outlook, January 2017</t>
+    <t>Short-Term Energy Outlook, February 2017</t>
   </si>
   <si>
     <t>Annual Consumption (Million barrels per day)</t>
@@ -53,7 +53,7 @@
     <t>World</t>
   </si>
   <si>
-    <t>Source: Short-Term Energy Outlook, January 2017.</t>
+    <t>Source: Short-Term Energy Outlook, February 2017.</t>
   </si>
   <si>
     <t>Forecast</t>
@@ -298,31 +298,31 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>1.9616617920000081</c:v>
+                  <c:v>2.1455776924000105</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.65174426099999749</c:v>
+                  <c:v>0.48129348399999827</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0271862080000105</c:v>
+                  <c:v>1.1071448649999951</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.21452828199997498</c:v>
+                  <c:v>0.22417552199999591</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.67088094900001494</c:v>
+                  <c:v>0.72553847699999352</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.66711730699999094</c:v>
+                  <c:v>0.54349300600001271</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.0012541820000109</c:v>
+                  <c:v>0.95270458600001007</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.0371334999999959</c:v>
+                  <c:v>1.0628936019999884</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.83476313199999197</c:v>
+                  <c:v>0.82729601999999147</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -383,31 +383,31 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.8685359100000003</c:v>
+                  <c:v>1.0299784166000006</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.56569105999999891</c:v>
+                  <c:v>0.52609817699999972</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.67108916000000107</c:v>
+                  <c:v>0.4962475210000008</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.30486256000000012</c:v>
+                  <c:v>0.53450995599999906</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.36999999999999922</c:v>
+                  <c:v>0.40863030699999925</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.42999999999999972</c:v>
+                  <c:v>0.48726803400000129</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.374638268</c:v>
+                  <c:v>0.40000000000000036</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.32656602499999998</c:v>
+                  <c:v>0.29999999999999893</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.30003015800000021</c:v>
+                  <c:v>0.30000000000000071</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -486,13 +486,13 @@
                   <c:v>0.42507324700000026</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.6549515000000383E-2</c:v>
+                  <c:v>5.3327451999997777E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.26065764099999811</c:v>
+                  <c:v>0.25893056099999967</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.37586049300000113</c:v>
+                  <c:v>0.32993330700000101</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -508,8 +508,8 @@
         </c:dLbls>
         <c:gapWidth val="50"/>
         <c:overlap val="100"/>
-        <c:axId val="673173312"/>
-        <c:axId val="673173872"/>
+        <c:axId val="626752048"/>
+        <c:axId val="626748128"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -573,31 +573,31 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>88.217163761999998</c:v>
+                  <c:v>89.175259143000005</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>89.136545967999993</c:v>
+                  <c:v>89.884597689000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>90.442961995000005</c:v>
+                  <c:v>91.096130733999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>91.433270363999995</c:v>
+                  <c:v>92.325733739</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>92.618635811999994</c:v>
+                  <c:v>93.604387021999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>94.140826365999999</c:v>
+                  <c:v>95.060221308999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>95.573268330999994</c:v>
+                  <c:v>96.466253347000006</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>97.197625497000004</c:v>
+                  <c:v>98.088077510000005</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>98.708279279999999</c:v>
+                  <c:v>99.545306836999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -614,8 +614,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="673172192"/>
-        <c:axId val="673172752"/>
+        <c:axId val="625625952"/>
+        <c:axId val="625626512"/>
       </c:lineChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -734,11 +734,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="673173312"/>
-        <c:axId val="673173872"/>
+        <c:axId val="626752048"/>
+        <c:axId val="626748128"/>
       </c:scatterChart>
       <c:catAx>
-        <c:axId val="673172192"/>
+        <c:axId val="625625952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -755,7 +755,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="673172752"/>
+        <c:crossAx val="625626512"/>
         <c:crossesAt val="80"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -763,7 +763,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="673172752"/>
+        <c:axId val="625626512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="102"/>
@@ -791,13 +791,13 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="673172192"/>
+        <c:crossAx val="625625952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="2"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="673173312"/>
+        <c:axId val="626752048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -807,7 +807,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="673173872"/>
+        <c:crossAx val="626748128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -815,7 +815,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="673173872"/>
+        <c:axId val="626748128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="11"/>
@@ -832,7 +832,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="673173312"/>
+        <c:crossAx val="626752048"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -855,7 +855,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="2.7874564459930314E-2"/>
-          <c:y val="0.16001392790725283"/>
+          <c:y val="0.16805412891227792"/>
           <c:w val="0.56027874564460001"/>
           <c:h val="0.23429019111304555"/>
         </c:manualLayout>
@@ -1057,7 +1057,7 @@
               <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
             </a:rPr>
             <a:pPr algn="l"/>
-            <a:t>Source: Short-Term Energy Outlook, January 2017.</a:t>
+            <a:t>Source: Short-Term Energy Outlook, February 2017.</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="900">
             <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
@@ -1128,16 +1128,16 @@
             <v>2010</v>
           </cell>
           <cell r="E28">
-            <v>88.217163761999998</v>
+            <v>89.175259143000005</v>
           </cell>
           <cell r="G28">
-            <v>0.8685359100000003</v>
+            <v>1.0299784166000006</v>
           </cell>
           <cell r="H28">
             <v>0.40866078900000247</v>
           </cell>
           <cell r="I28">
-            <v>1.9616617920000081</v>
+            <v>2.1455776924000105</v>
           </cell>
         </row>
         <row r="29">
@@ -1145,16 +1145,16 @@
             <v>2011</v>
           </cell>
           <cell r="E29">
-            <v>89.136545967999993</v>
+            <v>89.884597689000003</v>
           </cell>
           <cell r="G29">
-            <v>0.56569105999999891</v>
+            <v>0.52609817699999972</v>
           </cell>
           <cell r="H29">
             <v>-0.29805311500000187</v>
           </cell>
           <cell r="I29">
-            <v>0.65174426099999749</v>
+            <v>0.48129348399999827</v>
           </cell>
         </row>
         <row r="30">
@@ -1162,16 +1162,16 @@
             <v>2012</v>
           </cell>
           <cell r="E30">
-            <v>90.442961995000005</v>
+            <v>91.096130733999999</v>
           </cell>
           <cell r="G30">
-            <v>0.67108916000000107</v>
+            <v>0.4962475210000008</v>
           </cell>
           <cell r="H30">
             <v>-0.39185934099999997</v>
           </cell>
           <cell r="I30">
-            <v>1.0271862080000105</v>
+            <v>1.1071448649999951</v>
           </cell>
         </row>
         <row r="31">
@@ -1179,16 +1179,16 @@
             <v>2013</v>
           </cell>
           <cell r="E31">
-            <v>91.433270363999995</v>
+            <v>92.325733739</v>
           </cell>
           <cell r="G31">
-            <v>0.30486256000000012</v>
+            <v>0.53450995599999906</v>
           </cell>
           <cell r="H31">
             <v>0.470917527000001</v>
           </cell>
           <cell r="I31">
-            <v>0.21452828199997498</v>
+            <v>0.22417552199999591</v>
           </cell>
         </row>
         <row r="32">
@@ -1196,16 +1196,16 @@
             <v>2014</v>
           </cell>
           <cell r="E32">
-            <v>92.618635811999994</v>
+            <v>93.604387021999997</v>
           </cell>
           <cell r="G32">
-            <v>0.36999999999999922</v>
+            <v>0.40863030699999925</v>
           </cell>
           <cell r="H32">
             <v>0.14448449900000071</v>
           </cell>
           <cell r="I32">
-            <v>0.67088094900001494</v>
+            <v>0.72553847699999352</v>
           </cell>
         </row>
         <row r="33">
@@ -1213,16 +1213,16 @@
             <v>2015</v>
           </cell>
           <cell r="E33">
-            <v>94.140826365999999</v>
+            <v>95.060221308999999</v>
           </cell>
           <cell r="G33">
-            <v>0.42999999999999972</v>
+            <v>0.48726803400000129</v>
           </cell>
           <cell r="H33">
             <v>0.42507324700000026</v>
           </cell>
           <cell r="I33">
-            <v>0.66711730699999094</v>
+            <v>0.54349300600001271</v>
           </cell>
         </row>
         <row r="34">
@@ -1230,16 +1230,16 @@
             <v>2016</v>
           </cell>
           <cell r="E34">
-            <v>95.573268330999994</v>
+            <v>96.466253347000006</v>
           </cell>
           <cell r="G34">
-            <v>0.374638268</v>
+            <v>0.40000000000000036</v>
           </cell>
           <cell r="H34">
-            <v>5.6549515000000383E-2</v>
+            <v>5.3327451999997777E-2</v>
           </cell>
           <cell r="I34">
-            <v>1.0012541820000109</v>
+            <v>0.95270458600001007</v>
           </cell>
         </row>
         <row r="35">
@@ -1247,16 +1247,16 @@
             <v>2017</v>
           </cell>
           <cell r="E35">
-            <v>97.197625497000004</v>
+            <v>98.088077510000005</v>
           </cell>
           <cell r="G35">
-            <v>0.32656602499999998</v>
+            <v>0.29999999999999893</v>
           </cell>
           <cell r="H35">
-            <v>0.26065764099999811</v>
+            <v>0.25893056099999967</v>
           </cell>
           <cell r="I35">
-            <v>1.0371334999999959</v>
+            <v>1.0628936019999884</v>
           </cell>
         </row>
         <row r="36">
@@ -1264,16 +1264,16 @@
             <v>2018</v>
           </cell>
           <cell r="E36">
-            <v>98.708279279999999</v>
+            <v>99.545306836999998</v>
           </cell>
           <cell r="G36">
-            <v>0.30003015800000021</v>
+            <v>0.30000000000000071</v>
           </cell>
           <cell r="H36">
-            <v>0.37586049300000113</v>
+            <v>0.32993330700000101</v>
           </cell>
           <cell r="I36">
-            <v>0.83476313199999197</v>
+            <v>0.82729601999999147</v>
           </cell>
         </row>
         <row r="41">
@@ -1664,17 +1664,17 @@
         <v>2009</v>
       </c>
       <c r="B27" s="10">
-        <v>8.06982131</v>
+        <v>8.4972675883999997</v>
       </c>
       <c r="C27" s="10">
         <v>18.771455155999998</v>
       </c>
       <c r="D27" s="10">
         <f>E27-C27-B27</f>
-        <v>58.137028804999993</v>
+        <v>58.322319500599995</v>
       </c>
       <c r="E27" s="11">
-        <v>84.978305270999996</v>
+        <v>85.591042244999997</v>
       </c>
       <c r="G27" s="12"/>
       <c r="H27" s="12"/>
@@ -1686,21 +1686,21 @@
         <v>2010</v>
       </c>
       <c r="B28" s="10">
-        <v>8.9383572200000003</v>
+        <v>9.5272460050000003</v>
       </c>
       <c r="C28" s="10">
         <v>19.180115945000001</v>
       </c>
       <c r="D28" s="10">
         <f t="shared" ref="D28:D36" si="0">E28-C28-B28</f>
-        <v>60.098690597000001</v>
+        <v>60.467897193000006</v>
       </c>
       <c r="E28" s="11">
-        <v>88.217163761999998</v>
+        <v>89.175259143000005</v>
       </c>
       <c r="G28" s="11">
         <f>B28-B27</f>
-        <v>0.8685359100000003</v>
+        <v>1.0299784166000006</v>
       </c>
       <c r="H28" s="11">
         <f>C28-C27</f>
@@ -1708,11 +1708,11 @@
       </c>
       <c r="I28" s="11">
         <f>D28-D27</f>
-        <v>1.9616617920000081</v>
+        <v>2.1455776924000105</v>
       </c>
       <c r="J28" s="11">
         <f>E28-E27</f>
-        <v>3.238858491000002</v>
+        <v>3.5842168980000082</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
@@ -1720,21 +1720,21 @@
         <v>2011</v>
       </c>
       <c r="B29" s="10">
-        <v>9.5040482799999992</v>
+        <v>10.053344182</v>
       </c>
       <c r="C29" s="10">
         <v>18.882062829999999</v>
       </c>
       <c r="D29" s="10">
         <f t="shared" si="0"/>
-        <v>60.750434857999998</v>
+        <v>60.949190677000004</v>
       </c>
       <c r="E29" s="11">
-        <v>89.136545967999993</v>
+        <v>89.884597689000003</v>
       </c>
       <c r="G29" s="11">
         <f t="shared" ref="G29:J36" si="1">B29-B28</f>
-        <v>0.56569105999999891</v>
+        <v>0.52609817699999972</v>
       </c>
       <c r="H29" s="11">
         <f t="shared" si="1"/>
@@ -1742,11 +1742,11 @@
       </c>
       <c r="I29" s="11">
         <f t="shared" si="1"/>
-        <v>0.65174426099999749</v>
+        <v>0.48129348399999827</v>
       </c>
       <c r="J29" s="11">
         <f t="shared" si="1"/>
-        <v>0.91938220599999454</v>
+        <v>0.7093385459999979</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
@@ -1754,21 +1754,21 @@
         <v>2012</v>
       </c>
       <c r="B30" s="10">
-        <v>10.17513744</v>
+        <v>10.549591703000001</v>
       </c>
       <c r="C30" s="10">
         <v>18.490203488999999</v>
       </c>
       <c r="D30" s="10">
         <f t="shared" si="0"/>
-        <v>61.777621066000009</v>
+        <v>62.056335541999999</v>
       </c>
       <c r="E30" s="11">
-        <v>90.442961995000005</v>
+        <v>91.096130733999999</v>
       </c>
       <c r="G30" s="11">
         <f t="shared" si="1"/>
-        <v>0.67108916000000107</v>
+        <v>0.4962475210000008</v>
       </c>
       <c r="H30" s="11">
         <f t="shared" si="1"/>
@@ -1776,11 +1776,11 @@
       </c>
       <c r="I30" s="11">
         <f t="shared" si="1"/>
-        <v>1.0271862080000105</v>
+        <v>1.1071448649999951</v>
       </c>
       <c r="J30" s="11">
         <f t="shared" si="1"/>
-        <v>1.3064160270000116</v>
+        <v>1.2115330449999959</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
@@ -1788,21 +1788,21 @@
         <v>2013</v>
       </c>
       <c r="B31" s="10">
-        <v>10.48</v>
+        <v>11.084101659</v>
       </c>
       <c r="C31" s="10">
         <v>18.961121016</v>
       </c>
       <c r="D31" s="10">
         <f t="shared" si="0"/>
-        <v>61.992149347999984</v>
+        <v>62.280511063999995</v>
       </c>
       <c r="E31" s="11">
-        <v>91.433270363999995</v>
+        <v>92.325733739</v>
       </c>
       <c r="G31" s="11">
         <f t="shared" si="1"/>
-        <v>0.30486256000000012</v>
+        <v>0.53450995599999906</v>
       </c>
       <c r="H31" s="11">
         <f t="shared" si="1"/>
@@ -1810,11 +1810,11 @@
       </c>
       <c r="I31" s="11">
         <f t="shared" si="1"/>
-        <v>0.21452828199997498</v>
+        <v>0.22417552199999591</v>
       </c>
       <c r="J31" s="11">
         <f t="shared" si="1"/>
-        <v>0.99030836899999031</v>
+        <v>1.2296030050000013</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
@@ -1822,21 +1822,21 @@
         <v>2014</v>
       </c>
       <c r="B32" s="10">
-        <v>10.85</v>
+        <v>11.492731965999999</v>
       </c>
       <c r="C32" s="10">
         <v>19.105605515000001</v>
       </c>
       <c r="D32" s="10">
         <f t="shared" si="0"/>
-        <v>62.663030296999999</v>
+        <v>63.006049540999989</v>
       </c>
       <c r="E32" s="11">
-        <v>92.618635811999994</v>
+        <v>93.604387021999997</v>
       </c>
       <c r="G32" s="11">
         <f t="shared" si="1"/>
-        <v>0.36999999999999922</v>
+        <v>0.40863030699999925</v>
       </c>
       <c r="H32" s="11">
         <f t="shared" si="1"/>
@@ -1844,11 +1844,11 @@
       </c>
       <c r="I32" s="11">
         <f t="shared" si="1"/>
-        <v>0.67088094900001494</v>
+        <v>0.72553847699999352</v>
       </c>
       <c r="J32" s="11">
         <f t="shared" si="1"/>
-        <v>1.1853654479999989</v>
+        <v>1.278653282999997</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
@@ -1856,21 +1856,21 @@
         <v>2015</v>
       </c>
       <c r="B33" s="10">
-        <v>11.28</v>
+        <v>11.98</v>
       </c>
       <c r="C33" s="10">
         <v>19.530678762000001</v>
       </c>
       <c r="D33" s="10">
         <f t="shared" si="0"/>
-        <v>63.33014760399999</v>
+        <v>63.549542547000001</v>
       </c>
       <c r="E33" s="11">
-        <v>94.140826365999999</v>
+        <v>95.060221308999999</v>
       </c>
       <c r="G33" s="11">
         <f t="shared" si="1"/>
-        <v>0.42999999999999972</v>
+        <v>0.48726803400000129</v>
       </c>
       <c r="H33" s="11">
         <f t="shared" si="1"/>
@@ -1878,11 +1878,11 @@
       </c>
       <c r="I33" s="11">
         <f t="shared" si="1"/>
-        <v>0.66711730699999094</v>
+        <v>0.54349300600001271</v>
       </c>
       <c r="J33" s="11">
         <f t="shared" si="1"/>
-        <v>1.5221905540000051</v>
+        <v>1.4558342870000018</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
@@ -1890,33 +1890,33 @@
         <v>2016</v>
       </c>
       <c r="B34" s="10">
-        <v>11.654638267999999</v>
+        <v>12.38</v>
       </c>
       <c r="C34" s="10">
-        <v>19.587228277000001</v>
+        <v>19.584006213999999</v>
       </c>
       <c r="D34" s="10">
         <f t="shared" si="0"/>
-        <v>64.331401786000001</v>
+        <v>64.502247133000012</v>
       </c>
       <c r="E34" s="11">
-        <v>95.573268330999994</v>
+        <v>96.466253347000006</v>
       </c>
       <c r="G34" s="11">
         <f t="shared" si="1"/>
-        <v>0.374638268</v>
+        <v>0.40000000000000036</v>
       </c>
       <c r="H34" s="11">
         <f t="shared" si="1"/>
-        <v>5.6549515000000383E-2</v>
+        <v>5.3327451999997777E-2</v>
       </c>
       <c r="I34" s="11">
         <f t="shared" si="1"/>
-        <v>1.0012541820000109</v>
+        <v>0.95270458600001007</v>
       </c>
       <c r="J34" s="11">
         <f t="shared" si="1"/>
-        <v>1.4324419649999953</v>
+        <v>1.4060320380000064</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
@@ -1924,33 +1924,33 @@
         <v>2017</v>
       </c>
       <c r="B35" s="10">
-        <v>11.981204292999999</v>
+        <v>12.68</v>
       </c>
       <c r="C35" s="10">
-        <v>19.847885917999999</v>
+        <v>19.842936774999998</v>
       </c>
       <c r="D35" s="10">
         <f t="shared" si="0"/>
-        <v>65.368535285999997</v>
+        <v>65.565140735</v>
       </c>
       <c r="E35" s="11">
-        <v>97.197625497000004</v>
+        <v>98.088077510000005</v>
       </c>
       <c r="G35" s="11">
         <f t="shared" si="1"/>
-        <v>0.32656602499999998</v>
+        <v>0.29999999999999893</v>
       </c>
       <c r="H35" s="11">
         <f t="shared" si="1"/>
-        <v>0.26065764099999811</v>
+        <v>0.25893056099999967</v>
       </c>
       <c r="I35" s="11">
         <f t="shared" si="1"/>
-        <v>1.0371334999999959</v>
+        <v>1.0628936019999884</v>
       </c>
       <c r="J35" s="11">
         <f t="shared" si="1"/>
-        <v>1.62435716600001</v>
+        <v>1.6218241629999994</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
@@ -1958,34 +1958,34 @@
         <v>2018</v>
       </c>
       <c r="B36" s="13">
-        <v>12.281234451</v>
+        <v>12.98</v>
       </c>
       <c r="C36" s="13">
-        <v>20.223746411</v>
+        <v>20.172870081999999</v>
       </c>
       <c r="D36" s="13">
         <f t="shared" si="0"/>
-        <v>66.203298417999989</v>
+        <v>66.392436754999991</v>
       </c>
       <c r="E36" s="14">
-        <v>98.708279279999999</v>
+        <v>99.545306836999998</v>
       </c>
       <c r="F36" s="7"/>
       <c r="G36" s="14">
         <f t="shared" si="1"/>
-        <v>0.30003015800000021</v>
+        <v>0.30000000000000071</v>
       </c>
       <c r="H36" s="14">
         <f t="shared" si="1"/>
-        <v>0.37586049300000113</v>
+        <v>0.32993330700000101</v>
       </c>
       <c r="I36" s="14">
         <f t="shared" si="1"/>
-        <v>0.83476313199999197</v>
+        <v>0.82729601999999147</v>
       </c>
       <c r="J36" s="14">
         <f t="shared" si="1"/>
-        <v>1.5106537829999951</v>
+        <v>1.4572293269999932</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
